--- a/data/Linhas_da_NFE.xlsx
+++ b/data/Linhas_da_NFE.xlsx
@@ -1128,18 +1128,18 @@
         <v>460.0</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>45485.0</v>
+        <v>45489.0</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>45485.99930555555</v>
+        <v>45489.99930555555</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100094424</t>
+          <t>100094507</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>88113.0</v>
+        <v>88206.0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1147,41 +1147,41 @@
         </is>
       </c>
       <c r="J2" s="9" t="n">
-        <v>45485.40715277778</v>
+        <v>45489.40292824074</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BR0101</t>
+          <t>BR0105</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>TROX Produtos</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>BR1360370</t>
+          <t/>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>BR0015442</t>
+          <t>BR0026113</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>SAO LUIZ ADM SHOPPING S/C LTDA</t>
+          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="R2" s="15" t="n">
@@ -1189,27 +1189,27 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>S101</t>
+          <t>S949</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Venda produção estabelecimento</t>
+          <t>Outras saídas não especificada</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>BR1360370</t>
+          <t>BR1358965</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>VDF.1-V560962</t>
+          <t>ED281305-ENG 549176</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0001/TOMADA DE AR EXTERNO/VDF-F700/897X597/K/AG/F/AN0</t>
+          <t>DIFUSOR VSD-50</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -1219,21 +1219,21 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Venda com pedido</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>1048.09</v>
+        <v>547.91</v>
       </c>
       <c r="AE2" t="n">
-        <v>4614.92</v>
+        <v>2262.87</v>
       </c>
       <c r="AF2" t="n">
-        <v>6288.54</v>
+        <v>2191.64</v>
       </c>
       <c r="AG2" t="n">
-        <v>6492.92</v>
+        <v>2262.87</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>204.38</v>
+        <v>71.23</v>
       </c>
       <c r="AK2" t="n">
-        <v>80.19</v>
+        <v>0.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>369.37</v>
+        <v>0.0</v>
       </c>
       <c r="AM2" t="n">
         <v>0.0</v>
@@ -1296,38 +1296,38 @@
         <v>0.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>6492.92</v>
+        <v>2262.87</v>
       </c>
       <c r="AV2" t="n">
         <v>22.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>973.94</v>
+        <v>181.03</v>
       </c>
       <c r="AY2" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0</v>
+        <v>45.26</v>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>55004</t>
+          <t/>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>DOPAZO ENGENHARIA</t>
+          <t/>
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
@@ -1360,17 +1360,17 @@
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>686</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>JAMEF ENCOMENDAS URGENTE</t>
+          <t>BRAVO LOG TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>01637668/0001-07</t>
+          <t>48699418/0001-65</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
@@ -1380,16 +1380,16 @@
       </c>
       <c r="BP2" t="inlineStr">
         <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BR2" t="n">
-        <v>454.5</v>
+        <v>271.54</v>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="BT2" t="n">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="BV2" t="n">
-        <v>79811.0</v>
+        <v>79912.0</v>
       </c>
     </row>
     <row r="3">
@@ -1413,18 +1413,18 @@
         <v>460.0</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>45485.0</v>
+        <v>45489.0</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>45485.99930555555</v>
+        <v>45489.99930555555</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100094424</t>
+          <t>100094507</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>88113.0</v>
+        <v>88206.0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1432,41 +1432,41 @@
         </is>
       </c>
       <c r="J3" s="9" t="n">
-        <v>45485.40715277778</v>
+        <v>45489.40292824074</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BR0101</t>
+          <t>BR0105</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>TROX Produtos</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>BR1360370</t>
+          <t/>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>BR0015442</t>
+          <t>BR0026113</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>SAO LUIZ ADM SHOPPING S/C LTDA</t>
+          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="R3" s="15" t="n">
@@ -1474,27 +1474,27 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>S101</t>
+          <t>S949</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Venda produção estabelecimento</t>
+          <t>Outras saídas não especificada</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>BR1360370</t>
+          <t>BR1358965</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>VDF.2-V560963</t>
+          <t>ED281305-ENG 553690</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0002/TOMADA DE AR EXTERNO/VDF-F700/697X797/K/AG/F/AN0</t>
+          <t>DIFUSOR VSD-50</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1504,21 +1504,21 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Venda com pedido</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>1059.34</v>
+        <v>600.66</v>
       </c>
       <c r="AE3" t="n">
-        <v>777.41</v>
+        <v>1240.36</v>
       </c>
       <c r="AF3" t="n">
-        <v>1059.34</v>
+        <v>1201.32</v>
       </c>
       <c r="AG3" t="n">
-        <v>1093.77</v>
+        <v>1240.36</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>34.43</v>
+        <v>39.04</v>
       </c>
       <c r="AK3" t="n">
-        <v>13.51</v>
+        <v>0.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>62.22</v>
+        <v>0.0</v>
       </c>
       <c r="AM3" t="n">
         <v>0.0</v>
@@ -1581,38 +1581,38 @@
         <v>0.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1093.77</v>
+        <v>1240.36</v>
       </c>
       <c r="AV3" t="n">
         <v>22.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>164.07</v>
+        <v>99.23</v>
       </c>
       <c r="AY3" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0</v>
+        <v>24.81</v>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>55004</t>
+          <t/>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>DOPAZO ENGENHARIA</t>
+          <t/>
         </is>
       </c>
       <c r="BD3" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
@@ -1645,17 +1645,17 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>686</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>JAMEF ENCOMENDAS URGENTE</t>
+          <t>BRAVO LOG TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>01637668/0001-07</t>
+          <t>48699418/0001-65</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
@@ -1665,16 +1665,16 @@
       </c>
       <c r="BP3" t="inlineStr">
         <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BR3" t="n">
-        <v>76.56</v>
+        <v>148.84</v>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="BT3" t="n">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="BU3" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="BV3" t="n">
-        <v>79811.0</v>
+        <v>79912.0</v>
       </c>
     </row>
     <row r="4">
@@ -1698,18 +1698,18 @@
         <v>460.0</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>45485.0</v>
+        <v>45489.0</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>45485.99930555555</v>
+        <v>45489.99930555555</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100094426</t>
+          <t>100094534</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>88114.0</v>
+        <v>88207.0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="J4" s="9" t="n">
-        <v>45485.407164351855</v>
+        <v>45489.403229166666</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>BR1360707</t>
+          <t>BR1360152</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>BR1901219</t>
+          <t>BR1002176</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>IRMAOS KUNST CONSTRUCOES LTDA</t>
+          <t>LOCALIZA RENT A CAR S/A</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R4" s="15" t="n">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>BR1360707</t>
+          <t>BR1360152</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>AWG.1-V563647</t>
+          <t>F760.1-V558777</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0001/VENEZIANA/AWG/1000X800/P/0/F/AN0</t>
+          <t>0001/FILTRO DE CARVAO ATIVADO/F760-610X610X292</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84213990</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1811,20 +1811,20 @@
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>740.92</v>
+        <v>1626.19</v>
       </c>
       <c r="AE4" t="n">
-        <v>578.44</v>
+        <v>21534.41</v>
       </c>
       <c r="AF4" t="n">
-        <v>740.92</v>
+        <v>26019.04</v>
       </c>
       <c r="AG4" t="n">
-        <v>765.0</v>
+        <v>26019.04</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>24.08</v>
+        <v>0.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.08</v>
+        <v>391.53</v>
       </c>
       <c r="AL4" t="n">
-        <v>46.43</v>
+        <v>1803.43</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1866,16 +1866,16 @@
         <v>0.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>765.0</v>
+        <v>12720.4</v>
       </c>
       <c r="AV4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW4" t="n">
         <v>12.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>38.25</v>
+        <v>0.0</v>
       </c>
       <c r="AY4" t="n">
         <v>0.0</v>
@@ -1888,16 +1888,16 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>51007</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>KLB REP COMERCIAIS</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD4" t="n">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
@@ -1930,36 +1930,36 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>143</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>EXPRESSO SÃO MIGUEL LTDA</t>
+          <t>JAMEF ENCOMENDAS URGENTE</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>97764302/0001-78</t>
+          <t>16670085/0001-55</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
+          <t>PR820021</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BR4" t="n">
-        <v>91.8</v>
+        <v>2289.67</v>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="BT4" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="BU4" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="BV4" t="n">
-        <v>79812.0</v>
+        <v>79913.0</v>
       </c>
     </row>
     <row r="5">
@@ -1983,18 +1983,18 @@
         <v>460.0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>45485.0</v>
+        <v>45489.0</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>45485.99930555555</v>
+        <v>45489.99930555555</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100094427</t>
+          <t>100094535</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>88115.0</v>
+        <v>88208.0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="J5" s="9" t="n">
-        <v>45485.407175925924</v>
+        <v>45489.40325231481</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>BR1360792</t>
+          <t>BR1360564</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>BR0026573</t>
+          <t>BR0010977</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>I2R STUDIO DE BIKE FORTALEZA LTDA</t>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R5" s="15" t="n">
@@ -2054,17 +2054,17 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>BR1360792</t>
+          <t>BR1360564</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>AWK.1-V564493</t>
+          <t>AWG.1-V562485</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0001/VENEZIANA/AWK/1041X472/0/0/F/AN0/0</t>
+          <t>0001/VENEZIANA/AWG/1185X1650/P/0/F/AN0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -2096,16 +2096,16 @@
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>352.3</v>
+        <v>1436.74</v>
       </c>
       <c r="AE5" t="n">
-        <v>265.14</v>
+        <v>2243.36</v>
       </c>
       <c r="AF5" t="n">
-        <v>352.3</v>
+        <v>2873.48</v>
       </c>
       <c r="AG5" t="n">
-        <v>363.75</v>
+        <v>2966.87</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>11.45</v>
+        <v>93.39</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.61</v>
+        <v>39.09</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.25</v>
+        <v>180.05</v>
       </c>
       <c r="AM5" t="n">
         <v>0.0</v>
@@ -2151,16 +2151,16 @@
         <v>0.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>363.75</v>
+        <v>2966.87</v>
       </c>
       <c r="AV5" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>47.29</v>
+        <v>148.35</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -2173,16 +2173,16 @@
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>57003</t>
+          <t>50001</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>ROUTE COMERCIAL LTDA.</t>
+          <t>DIETER HENNING</t>
         </is>
       </c>
       <c r="BD5" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
@@ -2210,22 +2210,22 @@
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>E73</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>52262993/0001-73</t>
+          <t>26354329/0001-44</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
@@ -2235,16 +2235,16 @@
       </c>
       <c r="BP5" t="inlineStr">
         <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BR5" t="n">
-        <v>25.46</v>
+        <v>356.02</v>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="BT5" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="BU5" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="BV5" t="n">
-        <v>79813.0</v>
+        <v>79914.0</v>
       </c>
     </row>
     <row r="6">
@@ -2268,18 +2268,18 @@
         <v>460.0</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>45485.0</v>
+        <v>45489.0</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>45485.99930555555</v>
+        <v>45489.99930555555</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100094428</t>
+          <t>100094535</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>88116.0</v>
+        <v>88208.0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2287,93 +2287,93 @@
         </is>
       </c>
       <c r="J6" s="9" t="n">
-        <v>45485.4071875</v>
+        <v>45489.40325231481</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BR0104</t>
+          <t>BR0101</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>TROX Partes e Peças</t>
+          <t>TROX Produtos</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>BR1361052</t>
+          <t>BR1360564</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>BR0025553</t>
+          <t>BR0010977</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>UNIMED VITORIA COOPERATIVA DE TRABA</t>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R6" s="15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>S949GR</t>
+          <t>S101</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Remessa para troca em garantia</t>
+          <t>Venda produção estabelecimento</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t/>
+          <t>BR1360564</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>BR100542P0014</t>
+          <t>JN.2-V562486</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0001/PERFIL ESTRUTURAL TKE L=1207</t>
+          <t>0002/DAMPER DE REGULAGEM PESADO/JN-B-0-D-N0/1200X1665/N/00/000</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>76042100</t>
+          <t>90261029</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -2381,20 +2381,20 @@
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>17.88</v>
+        <v>2808.77</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.88</v>
+        <v>4231.28</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.88</v>
+        <v>5617.54</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.88</v>
+        <v>5617.54</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -2406,10 +2406,10 @@
         <v>0.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0</v>
+        <v>76.93</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0</v>
+        <v>354.35</v>
       </c>
       <c r="AM6" t="n">
         <v>0.0</v>
@@ -2436,116 +2436,8096 @@
         <v>0.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>17.88</v>
+        <v>5617.54</v>
       </c>
       <c r="AV6" t="n">
         <v>17.0</v>
       </c>
       <c r="AW6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>280.88</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR6" t="n">
+        <v>674.1</v>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV6" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100094535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>88208.0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>45489.40325231481</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>BR0010977</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>KUL.3-V562487</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0003/DAMPER DE SOBRE PRESSAO/KUL/1197X1615</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>90261029</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>1338.4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2016.23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2676.8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2676.8</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>168.85</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2676.8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>133.84</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>2B001AFC-55E8-47F7-A1DC-BC0B245A6976</t>
+        </is>
+      </c>
+      <c r="BR7" t="n">
+        <v>321.22</v>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>Nac. conteudo import. &lt;= 40</t>
+        </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV7" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100094535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>88208.0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>45489.40325231481</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>BR0010977</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R8" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>AH.4-V562488</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0004/GRELHA DE ALETAS FIXAS/AH15-AG625X425/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>336.37</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8666.06</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11100.21</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11460.97</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>360.76</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>151.01</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>695.54</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11460.97</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>573.04</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR8" t="n">
+        <v>1375.32</v>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV8" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100094535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>88208.0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>45489.40325231481</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>BR0010977</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R9" s="15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>AH.5-V562489</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0005/GRELHA DE ALETAS FIXAS/AH15-A625X425/00FAN000</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>214.83</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5534.77</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7089.39</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7319.8</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>230.41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>444.22</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7319.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>365.99</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR9" t="n">
+        <v>878.38</v>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV9" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100094535</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>88208.0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>45489.40325231481</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>BR0010977</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R10" s="15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>AUL.6-V562490</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0006/DAMPER DE SOBRE PRESSAO/AUL-1-00/597X415/CF/000</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>90261029</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>272.39</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6770.64</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8988.87</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8988.87</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>567.02</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8988.87</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>449.45</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR10" t="n">
+        <v>1078.66</v>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV10" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100094535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>88208.0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>45489.40325231481</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>BR0010977</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R11" s="15" t="n">
         <v>7.0</v>
       </c>
-      <c r="AX6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>FK REPRESENTAÇÕES</t>
-        </is>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>BR1360564</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>AWG.7-V562491</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0007/VENEZIANA/AWG/1185X1980/P/0/F/AN0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>1680.09</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2623.33</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3360.18</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3469.39</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>109.21</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>210.55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>3469.39</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>173.47</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>DIETER HENNING</t>
+        </is>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="BH6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BK6" t="inlineStr">
+      <c r="BH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>E13</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>PRESTEX ENCOMENDAS EXPRESSAS L</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>27578434/0001-20</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>E73</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>26354329/0001-44</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BR11" t="n">
+        <v>416.33</v>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV11" t="n">
+        <v>79914.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100094536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>88209.0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>45489.40326388889</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>BR1360638</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>BR1530316</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>IRMAND.STA CASA MISER.PORTO ALEGRE</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>BR1360638</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>MFP.1-V563118</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0001/MFP-H13-ALZ/915x457x78(92)x45/PB/FNB/OTC/0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>84213990</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>892.41</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>738.6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>892.41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>892.41</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>461.95</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>51007</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>KLB REP COMERCIAIS</t>
+        </is>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BE12" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BR6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BS6" t="inlineStr">
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>H72</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>RODONAVES TRANSPORTES E ENC. L</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>92815000/0001-68</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>PR820021</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR12" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="BS12" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="BT6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU6" t="inlineStr">
+      <c r="BT12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BU12" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="BV6" t="n">
-        <v>79814.0</v>
+      <c r="BV12" t="n">
+        <v>79915.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100094536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>88209.0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>45489.40326388889</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>BR1360638</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>BR1530316</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>IRMAND.STA CASA MISER.PORTO ALEGRE</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>BR1360638</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>MFC.2-V563119</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0002/MFC-H13-ALZ/457x457x292x6/000/FNB/OTC/0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>84213990</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>1641.76</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1358.79</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1641.76</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1641.76</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>113.79</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>849.85</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>51007</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>KLB REP COMERCIAIS</t>
+        </is>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>H72</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>RODONAVES TRANSPORTES E ENC. L</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>92815000/0001-68</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>PR820021</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR13" t="n">
+        <v>144.47</v>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV13" t="n">
+        <v>79915.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100094537</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>88210.0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>45489.40326388889</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>BR1360701</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>BR1550742</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>FUNDACAO FELICE ROSSO</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R14" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>S949GR</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Remessa para troca em garantia</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>BR1360701</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>MFP.1-V563623</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0001/MFP-H13-GALP/305x610x292(299)x270/00/FNU/OTC/0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>84213990</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>6949</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Remessa</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>726.01</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>726.01</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>726.01</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>726.01</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>354.94</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>Demétrius de Almeida Franco da Cunh</t>
+        </is>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>JAMEF ENCOMENDAS URGENTE</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>17214149/0001-76</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>PR820021</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR14" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV14" t="n">
+        <v>79916.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>100094538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>88211.0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>45489.403275462966</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>BR1360810</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>BR0025869</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="R15" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>BR1360810</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>DUK.1-V564584</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0001/DIFUSOR DE LONGO ALCANCE/DUK-V-0-00/200/PH4</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>394.17</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4449.8</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5912.55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6104.71</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>192.16</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>356.56</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6104.71</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>793.61</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>59005</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>JOSE RICARDO V. DE BARROS PUCA</t>
+        </is>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>32581733/0001-53</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>39594F46-43C9-46EC-9E11-87373B996F21</t>
+        </is>
+      </c>
+      <c r="BR15" t="n">
+        <v>427.33</v>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>Nac. conteudo import. &lt;= 40</t>
+        </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV15" t="n">
+        <v>79917.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R16" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>ADLQ.1-V564826</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>0001/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-K-0-T3/148SAN00M0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>302.99</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3505.64</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>4544.85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4692.56</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>147.71</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>281.21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>4692.56</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>281.55</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR16" t="n">
+        <v>563.11</v>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV16" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R17" s="15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>ADLQ.2-V564827</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0002/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T4/000SAN00M0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>193.76</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1195.65</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1550.08</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1600.46</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1600.46</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>96.03</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR17" t="n">
+        <v>192.05</v>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV17" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R18" s="15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>ADLQ.3-V564828</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>0003/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T5/000SAN00M0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>232.08</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1432.1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1856.64</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1916.98</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60.34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>114.88</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1916.98</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>115.02</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR18" t="n">
+        <v>230.04</v>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV18" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R19" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>ADLQ.4-V564829</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0004/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-K-0-T4/178SAN00M0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12362.28</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16027.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16547.88</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>520.88</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>991.68</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>16547.88</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>992.87</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR19" t="n">
+        <v>1985.75</v>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV19" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R20" s="15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>ADQ.5-V564830</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>0005/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG371X208F000SAN00M00</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>116.14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>716.67</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>929.12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>959.32</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>57.49</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>959.32</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>57.56</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR20" t="n">
+        <v>115.12</v>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV20" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R21" s="15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>ADQ.6-V564831</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0006/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG471X208F000SAN00M00</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>133.05</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1539.4</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1995.75</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2060.61</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>123.49</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2060.61</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>123.64</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR21" t="n">
+        <v>247.27</v>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV21" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R22" s="15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>ADQ.7-V564832</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0007/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG571X208F000SAN00M00</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>149.96</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1735.06</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2249.4</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2322.51</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>139.18</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2322.51</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>139.35</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR22" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV22" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R23" s="15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>VAT.8-V564833</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0008/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X125/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3396.08</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>4402.84</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>4545.93</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>143.09</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>272.43</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>4545.93</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>272.76</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR23" t="n">
+        <v>545.51</v>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV23" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R24" s="15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>VAT.9-V564834</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0009/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X165/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>689.58</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>923.06</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>923.06</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR24" t="n">
+        <v>110.77</v>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV24" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R25" s="15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>VAT.10-V564835</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0010/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG425X165/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>133.07</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3797.77</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>4923.59</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>5083.61</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ25" t="n">
+        <v>160.02</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>66.14</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>304.65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>5083.61</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>305.02</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR25" t="n">
+        <v>610.03</v>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV25" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R26" s="15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>VAT.11-V564836</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0011/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X225/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>123.33</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>761.04</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>986.64</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1018.71</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1018.71</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>61.13</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR26" t="n">
+        <v>122.24</v>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV26" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R27" s="15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>VAT.12-V564837</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0012/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X75/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD27" t="n">
+        <v>77.48</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12311.28</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>15960.88</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>16479.61</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ27" t="n">
+        <v>518.73</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>214.41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>987.59</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>16479.61</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>988.78</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD27" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR27" t="n">
+        <v>1977.55</v>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV27" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R28" s="15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>VAT.13-V564838</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>0013/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X125/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>522.47</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>677.36</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>699.37</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ28" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>699.37</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR28" t="n">
+        <v>83.92</v>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV28" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R29" s="15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>VAT.14-V564839</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0014/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X225/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD29" t="n">
+        <v>123.33</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2092.85</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>2713.26</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>2801.44</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ29" t="n">
+        <v>88.18</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>167.88</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>2801.44</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>168.09</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR29" t="n">
+        <v>336.17</v>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV29" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R30" s="15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>VAT.15-V564840</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0015/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X165/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD30" t="n">
+        <v>90.43</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1046.28</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1356.45</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1400.53</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ30" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>83.93</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1400.53</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>84.04</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR30" t="n">
+        <v>168.06</v>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV30" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R31" s="15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>VAT.16-V564841</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0016/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG625X165/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD31" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2032.87</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2635.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2721.15</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ31" t="n">
+        <v>85.65</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>163.07</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>2721.15</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>163.27</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD31" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR31" t="n">
+        <v>326.54</v>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV31" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R32" s="15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>VAT.17-V564842</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0017/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG525X225/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD32" t="n">
+        <v>171.88</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1060.63</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1375.04</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1419.73</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ32" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>85.08</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1419.73</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>85.18</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD32" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR32" t="n">
+        <v>170.37</v>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV32" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R33" s="15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>VAT.18-V564843</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0018/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG525X325/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD33" t="n">
+        <v>201.03</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1240.51</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1608.24</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1660.51</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ33" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>99.51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1660.51</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>99.63</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD33" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR33" t="n">
+        <v>199.26</v>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU33" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV33" t="n">
+        <v>79918.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>45489.0</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>45489.99930555555</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>100094541</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>88212.0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>45489.40329861111</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>BR0015419</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R34" s="15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>BR1360829</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>VAT.19-V564844</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0019/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG625X225/00FAN0M0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD34" t="n">
+        <v>195.19</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3312.28</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4294.18</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4433.74</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ34" t="n">
+        <v>139.56</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>4433.74</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>266.02</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL34" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="BM34" t="inlineStr">
+        <is>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
+        </is>
+      </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>23921007/0001-41</t>
+        </is>
+      </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR34" t="n">
+        <v>532.05</v>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV34" t="n">
+        <v>79918.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Linhas_da_NFE.xlsx
+++ b/data/Linhas_da_NFE.xlsx
@@ -1128,18 +1128,18 @@
         <v>460.0</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100094507</t>
+          <t>100110610</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>88206.0</v>
+        <v>101220.0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1147,41 +1147,41 @@
         </is>
       </c>
       <c r="J2" s="9" t="n">
-        <v>45489.40292824074</v>
+        <v>45861.40696759259</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BR0105</t>
+          <t>BR0101</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>TROX Produtos</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t/>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>BR0026113</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R2" s="15" t="n">
@@ -1189,51 +1189,51 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>S949</t>
+          <t>S101</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Outras saídas não especificada</t>
+          <t>Venda produção estabelecimento</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>BR1358965</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>ED281305-ENG 549176</t>
+          <t>TKZ-ESP.1-V633558</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>DIFUSOR VSD-50</t>
+          <t>0001/UNIDADE TRATAMENTO DE AR/TKZ-42/1020X1120X8150</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -1241,20 +1241,20 @@
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>547.91</v>
+        <v>86895.33</v>
       </c>
       <c r="AE2" t="n">
-        <v>2262.87</v>
+        <v>71918.06</v>
       </c>
       <c r="AF2" t="n">
-        <v>2191.64</v>
+        <v>86895.33</v>
       </c>
       <c r="AG2" t="n">
-        <v>2262.87</v>
+        <v>86895.33</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>71.23</v>
+        <v>0.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0</v>
+        <v>1307.6</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0</v>
+        <v>6022.88</v>
       </c>
       <c r="AM2" t="n">
         <v>0.0</v>
@@ -1296,54 +1296,54 @@
         <v>0.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>2262.87</v>
+        <v>42482.08</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW2" t="n">
         <v>12.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>181.03</v>
+        <v>0.0</v>
       </c>
       <c r="AY2" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>45.26</v>
+        <v>0.0</v>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BF2" t="inlineStr">
         <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
       <c r="BH2" t="n">
         <v>0.0</v>
       </c>
@@ -1355,27 +1355,27 @@
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>BRAVO LOG TRANSPORTES LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>48699418/0001-65</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
@@ -1385,19 +1385,19 @@
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t/>
+          <t>391F8748-6C18-4911-8596-D7405618D392</t>
         </is>
       </c>
       <c r="BR2" t="n">
-        <v>271.54</v>
+        <v>7646.79</v>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT2" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="BV2" t="n">
-        <v>79912.0</v>
+        <v>93515.0</v>
       </c>
     </row>
     <row r="3">
@@ -1413,18 +1413,18 @@
         <v>460.0</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100094507</t>
+          <t>100110610</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>88206.0</v>
+        <v>101220.0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1432,41 +1432,41 @@
         </is>
       </c>
       <c r="J3" s="9" t="n">
-        <v>45489.40292824074</v>
+        <v>45861.40696759259</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BR0105</t>
+          <t>BR0101</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>TROX Produtos</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t/>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>BR0026113</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R3" s="15" t="n">
@@ -1474,51 +1474,51 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>S949</t>
+          <t>S101</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Outras saídas não especificada</t>
+          <t>Venda produção estabelecimento</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>BR1358965</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>ED281305-ENG 553690</t>
+          <t>TKZ-ESP.2-V633559</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>DIFUSOR VSD-50</t>
+          <t>0002/UNIDADE TRATAMENTO DE AR/TKZ-25/710X1120X8150</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1526,20 +1526,20 @@
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>600.66</v>
+        <v>76401.63</v>
       </c>
       <c r="AE3" t="n">
-        <v>1240.36</v>
+        <v>63233.06</v>
       </c>
       <c r="AF3" t="n">
-        <v>1201.32</v>
+        <v>76401.63</v>
       </c>
       <c r="AG3" t="n">
-        <v>1240.36</v>
+        <v>76401.63</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>39.04</v>
+        <v>0.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0</v>
+        <v>1149.69</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0</v>
+        <v>5295.54</v>
       </c>
       <c r="AM3" t="n">
         <v>0.0</v>
@@ -1581,54 +1581,54 @@
         <v>0.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1240.36</v>
+        <v>37351.84</v>
       </c>
       <c r="AV3" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW3" t="n">
         <v>12.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>99.23</v>
+        <v>0.0</v>
       </c>
       <c r="AY3" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>24.81</v>
+        <v>0.0</v>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BF3" t="inlineStr">
         <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
       <c r="BH3" t="n">
         <v>0.0</v>
       </c>
@@ -1640,27 +1640,27 @@
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>BRAVO LOG TRANSPORTES LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>48699418/0001-65</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t/>
+          <t>1002EFE3-A717-45FB-893E-0F370B24E046</t>
         </is>
       </c>
       <c r="BR3" t="n">
-        <v>148.84</v>
+        <v>6723.34</v>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT3" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
       <c r="BU3" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="BV3" t="n">
-        <v>79912.0</v>
+        <v>93515.0</v>
       </c>
     </row>
     <row r="4">
@@ -1698,18 +1698,18 @@
         <v>460.0</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100094534</t>
+          <t>100110610</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>88207.0</v>
+        <v>101220.0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="J4" s="9" t="n">
-        <v>45489.403229166666</v>
+        <v>45861.40696759259</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>BR1360152</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>BR1002176</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>LOCALIZA RENT A CAR S/A</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1755,76 +1755,76 @@
         </is>
       </c>
       <c r="R4" s="15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>BR1368793</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TKZ-ESP.4-V633561</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0004/UNIDADE TRATAMENTO DE AR/TKZ-31/1020X810X5980</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>84195090</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>1.0</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>S101</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Venda produção estabelecimento</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>BR1360152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>F760.1-V558777</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0001/FILTRO DE CARVAO ATIVADO/F760-610X610X292</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>84213990</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>16.0</v>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>1626.19</v>
+        <v>62060.13</v>
       </c>
       <c r="AE4" t="n">
-        <v>21534.41</v>
+        <v>51363.46</v>
       </c>
       <c r="AF4" t="n">
-        <v>26019.04</v>
+        <v>62060.13</v>
       </c>
       <c r="AG4" t="n">
-        <v>26019.04</v>
+        <v>62060.13</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1836,10 +1836,10 @@
         <v>0.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>391.53</v>
+        <v>933.88</v>
       </c>
       <c r="AL4" t="n">
-        <v>1803.43</v>
+        <v>4301.5</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1866,7 +1866,7 @@
         <v>0.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>12720.4</v>
+        <v>30340.45</v>
       </c>
       <c r="AV4" t="n">
         <v>18.0</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="BD4" t="n">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
@@ -1925,22 +1925,22 @@
       </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>JAMEF ENCOMENDAS URGENTE</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>16670085/0001-55</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
@@ -1955,19 +1955,19 @@
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t/>
+          <t>7118F99D-549C-4498-8627-12D2049AE743</t>
         </is>
       </c>
       <c r="BR4" t="n">
-        <v>2289.67</v>
+        <v>5461.29</v>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="BU4" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="BV4" t="n">
-        <v>79913.0</v>
+        <v>93515.0</v>
       </c>
     </row>
     <row r="5">
@@ -1983,18 +1983,18 @@
         <v>460.0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110610</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>88208.0</v>
+        <v>101220.0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="J5" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40696759259</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2026,90 +2026,90 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R5" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>BR1368793</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TKZ-ESP.5-V633562</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0005/UNIDADE TRATAMENTO DE AR/TKZ-31/1020X810X8150</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>84195090</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
         <v>1.0</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>S101</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Venda produção estabelecimento</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>BR1360564</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>AWG.1-V562485</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0001/VENEZIANA/AWG/1185X1650/P/0/F/AN0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>76169900</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>1436.74</v>
+        <v>80023.57</v>
       </c>
       <c r="AE5" t="n">
-        <v>2243.36</v>
+        <v>66230.73</v>
       </c>
       <c r="AF5" t="n">
-        <v>2873.48</v>
+        <v>80023.57</v>
       </c>
       <c r="AG5" t="n">
-        <v>2966.87</v>
+        <v>80023.57</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>93.39</v>
+        <v>0.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>39.09</v>
+        <v>1204.19</v>
       </c>
       <c r="AL5" t="n">
-        <v>180.05</v>
+        <v>5546.58</v>
       </c>
       <c r="AM5" t="n">
         <v>0.0</v>
@@ -2151,16 +2151,16 @@
         <v>0.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>2966.87</v>
+        <v>39122.56</v>
       </c>
       <c r="AV5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW5" t="n">
         <v>12.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>148.35</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -2173,16 +2173,16 @@
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD5" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
@@ -2210,27 +2210,27 @@
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t/>
+          <t>3D139DFC-23D1-4DF4-97D8-EF7A3E894937</t>
         </is>
       </c>
       <c r="BR5" t="n">
-        <v>356.02</v>
+        <v>7042.07</v>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT5" t="n">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="BV5" t="n">
-        <v>79914.0</v>
+        <v>93515.0</v>
       </c>
     </row>
     <row r="6">
@@ -2268,18 +2268,18 @@
         <v>460.0</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110610</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>88208.0</v>
+        <v>101220.0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="J6" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40696759259</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2311,21 +2311,21 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R6" s="15" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -2339,22 +2339,22 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>JN.2-V562486</t>
+          <t>TKZ-ESP.8-V633565</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0002/DAMPER DE REGULAGEM PESADO/JN-B-0-D-N0/1200X1665/N/00/000</t>
+          <t>0008/UNIDADE TRATAMENTO DE AR/TKZ-31/1020X810X5980</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>90261029</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -2381,20 +2381,20 @@
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>2808.77</v>
+        <v>62495.22</v>
       </c>
       <c r="AE6" t="n">
-        <v>4231.28</v>
+        <v>51723.55</v>
       </c>
       <c r="AF6" t="n">
-        <v>5617.54</v>
+        <v>62495.22</v>
       </c>
       <c r="AG6" t="n">
-        <v>5617.54</v>
+        <v>62495.22</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -2406,10 +2406,10 @@
         <v>0.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>76.93</v>
+        <v>940.43</v>
       </c>
       <c r="AL6" t="n">
-        <v>354.35</v>
+        <v>4331.66</v>
       </c>
       <c r="AM6" t="n">
         <v>0.0</v>
@@ -2436,16 +2436,16 @@
         <v>0.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>5617.54</v>
+        <v>30553.16</v>
       </c>
       <c r="AV6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW6" t="n">
         <v>12.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>280.88</v>
+        <v>0.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2458,16 +2458,16 @@
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD6" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
@@ -2495,27 +2495,27 @@
       </c>
       <c r="BK6" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t/>
+          <t>0A38E678-BFB3-4896-8DA7-2F45CB61BE25</t>
         </is>
       </c>
       <c r="BR6" t="n">
-        <v>674.1</v>
+        <v>5499.58</v>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT6" t="n">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="BV6" t="n">
-        <v>79914.0</v>
+        <v>93515.0</v>
       </c>
     </row>
     <row r="7">
@@ -2553,18 +2553,18 @@
         <v>460.0</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110611</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>88208.0</v>
+        <v>101221.0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="J7" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40697916667</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2596,21 +2596,21 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R7" s="15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -2624,22 +2624,22 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>KUL.3-V562487</t>
+          <t>TKZ-ESP.3-V633560</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0003/DAMPER DE SOBRE PRESSAO/KUL/1197X1615</t>
+          <t>0003/UNIDADE TRATAMENTO DE AR/TKZ-25/710X1120X5980</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>90261029</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -2666,20 +2666,20 @@
         </is>
       </c>
       <c r="AD7" t="n">
-        <v>1338.4</v>
+        <v>60389.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>2016.23</v>
+        <v>49980.57</v>
       </c>
       <c r="AF7" t="n">
-        <v>2676.8</v>
+        <v>60389.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>2676.8</v>
+        <v>60389.25</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -2691,10 +2691,10 @@
         <v>0.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>36.66</v>
+        <v>908.74</v>
       </c>
       <c r="AL7" t="n">
-        <v>168.85</v>
+        <v>4185.69</v>
       </c>
       <c r="AM7" t="n">
         <v>0.0</v>
@@ -2721,16 +2721,16 @@
         <v>0.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>2676.8</v>
+        <v>29523.58</v>
       </c>
       <c r="AV7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW7" t="n">
         <v>12.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>133.84</v>
+        <v>0.0</v>
       </c>
       <c r="AY7" t="n">
         <v>0.0</v>
@@ -2743,16 +2743,16 @@
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD7" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
@@ -2780,27 +2780,27 @@
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2B001AFC-55E8-47F7-A1DC-BC0B245A6976</t>
+          <t>F53CCD8B-DFB9-4CC6-AC1C-BC68E5340981</t>
         </is>
       </c>
       <c r="BR7" t="n">
-        <v>321.22</v>
+        <v>5314.25</v>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="BV7" t="n">
-        <v>79914.0</v>
+        <v>93516.0</v>
       </c>
     </row>
     <row r="8">
@@ -2838,18 +2838,18 @@
         <v>460.0</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110611</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>88208.0</v>
+        <v>101221.0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="J8" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40697916667</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2881,21 +2881,21 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R8" s="15" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -2909,22 +2909,22 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>AH.4-V562488</t>
+          <t>TKZ-ESP.6-V633563</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0004/GRELHA DE ALETAS FIXAS/AH15-AG625X425/00FAN0M0</t>
+          <t>0006/UNIDADE TRATAMENTO DE AR/TKZ-31/1020X810X8150</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2951,20 +2951,20 @@
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>336.37</v>
+        <v>80023.57</v>
       </c>
       <c r="AE8" t="n">
-        <v>8666.06</v>
+        <v>66230.73</v>
       </c>
       <c r="AF8" t="n">
-        <v>11100.21</v>
+        <v>80023.57</v>
       </c>
       <c r="AG8" t="n">
-        <v>11460.97</v>
+        <v>80023.57</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>360.76</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>151.01</v>
+        <v>1204.19</v>
       </c>
       <c r="AL8" t="n">
-        <v>695.54</v>
+        <v>5546.58</v>
       </c>
       <c r="AM8" t="n">
         <v>0.0</v>
@@ -3006,16 +3006,16 @@
         <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>11460.97</v>
+        <v>39122.56</v>
       </c>
       <c r="AV8" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW8" t="n">
         <v>12.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>573.04</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
         <v>0.0</v>
@@ -3028,16 +3028,16 @@
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD8" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
@@ -3095,15 +3095,15 @@
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t/>
+          <t>A1A7526D-86DE-4238-AB0E-6DF945C5ED94</t>
         </is>
       </c>
       <c r="BR8" t="n">
-        <v>1375.32</v>
+        <v>7042.07</v>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT8" t="n">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="BV8" t="n">
-        <v>79914.0</v>
+        <v>93516.0</v>
       </c>
     </row>
     <row r="9">
@@ -3123,18 +3123,18 @@
         <v>460.0</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110611</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>88208.0</v>
+        <v>101221.0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="J9" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40697916667</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3166,21 +3166,21 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0018690</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>FUNDACAO SAO FRANCISCO XAVIER</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="R9" s="15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -3194,22 +3194,22 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1368793</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>AH.5-V562489</t>
+          <t>TKZ-ESP.7-V633564</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0005/GRELHA DE ALETAS FIXAS/AH15-A625X425/00FAN000</t>
+          <t>0007/UNIDADE TRATAMENTO DE AR/TKZ-31/1020X810X5980</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84195090</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -3236,20 +3236,20 @@
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>214.83</v>
+        <v>62495.22</v>
       </c>
       <c r="AE9" t="n">
-        <v>5534.77</v>
+        <v>51723.55</v>
       </c>
       <c r="AF9" t="n">
-        <v>7089.39</v>
+        <v>62495.22</v>
       </c>
       <c r="AG9" t="n">
-        <v>7319.8</v>
+        <v>62495.22</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>230.41</v>
+        <v>0.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>96.44</v>
+        <v>940.43</v>
       </c>
       <c r="AL9" t="n">
-        <v>444.22</v>
+        <v>4331.66</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
@@ -3291,16 +3291,16 @@
         <v>0.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>7319.8</v>
+        <v>30553.16</v>
       </c>
       <c r="AV9" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW9" t="n">
         <v>12.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>365.99</v>
+        <v>0.0</v>
       </c>
       <c r="AY9" t="n">
         <v>0.0</v>
@@ -3313,16 +3313,16 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>54001</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
         </is>
       </c>
       <c r="BD9" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
@@ -3350,27 +3350,27 @@
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N89</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>RONDOMINAS TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>19878404/0010-00</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
@@ -3380,15 +3380,15 @@
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t/>
+          <t>1C611C61-22DB-4638-948D-92B576A2FE17</t>
         </is>
       </c>
       <c r="BR9" t="n">
-        <v>878.38</v>
+        <v>5499.58</v>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT9" t="n">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="BV9" t="n">
-        <v>79914.0</v>
+        <v>93516.0</v>
       </c>
     </row>
     <row r="10">
@@ -3408,18 +3408,18 @@
         <v>460.0</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110612</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>88208.0</v>
+        <v>101222.0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="J10" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40699074074</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1369577</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3451,21 +3451,21 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0028719</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>DIAGNOSTICOS DA AMERICA S.A .</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="R10" s="15" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -3479,22 +3479,22 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1369577</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>AUL.6-V562490</t>
+          <t>ZF.1-V641461</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0006/DAMPER DE SOBRE PRESSAO/AUL-1-00/597X415/CF/000</t>
+          <t>0001/ATENUADOR REDONDO/ZFK-560/00/ZN</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>90261029</t>
+          <t>84798999</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -3521,20 +3521,20 @@
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>272.39</v>
+        <v>3771.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>6770.64</v>
+        <v>74758.31</v>
       </c>
       <c r="AF10" t="n">
-        <v>8988.87</v>
+        <v>105613.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>8988.87</v>
+        <v>105613.2</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -3546,10 +3546,10 @@
         <v>0.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>123.1</v>
+        <v>1359.24</v>
       </c>
       <c r="AL10" t="n">
-        <v>567.02</v>
+        <v>6260.75</v>
       </c>
       <c r="AM10" t="n">
         <v>0.0</v>
@@ -3576,38 +3576,38 @@
         <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>8988.87</v>
+        <v>105613.2</v>
       </c>
       <c r="AV10" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="AW10" t="n">
         <v>12.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>449.45</v>
+        <v>8449.06</v>
       </c>
       <c r="AY10" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0</v>
+        <v>2112.26</v>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>002471</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>Gustavo Burato Oliveira</t>
         </is>
       </c>
       <c r="BD10" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
@@ -3635,22 +3635,22 @@
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>N76</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>NEWVEX TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>61486650/0498-67</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="BR10" t="n">
-        <v>1078.66</v>
+        <v>12673.58</v>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="BT10" t="n">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="BU10" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="BV10" t="n">
-        <v>79914.0</v>
+        <v>93517.0</v>
       </c>
     </row>
     <row r="11">
@@ -3693,18 +3693,18 @@
         <v>460.0</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>88208.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="J11" s="9" t="n">
-        <v>45489.40325231481</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>BR1360564</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3736,141 +3736,141 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R11" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>BR1370638</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>KUL-E.1-V649549</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0001/DAMPER DE SOBRE PRESSAO/KUL-E/597X715</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>90261029</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>958.55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4044.97</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5751.3</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5751.3</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>73.54</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>5751.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AW11" t="n">
         <v>7.0</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>S101</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Venda produção estabelecimento</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>BR1360564</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>AWG.7-V562491</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0007/VENEZIANA/AWG/1185X1980/P/0/F/AN0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>76169900</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="AD11" t="n">
-        <v>1680.09</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2623.33</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>3360.18</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>3469.39</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Fabricado</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v>109.21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>45.71</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>210.55</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>3469.39</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>12.0</v>
-      </c>
       <c r="AX11" t="n">
-        <v>173.47</v>
+        <v>891.45</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -3883,16 +3883,16 @@
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>50001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>DIETER HENNING</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD11" t="n">
-        <v>0.72</v>
+        <v>0.56</v>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
@@ -3925,17 +3925,17 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>E73</t>
+          <t>017</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>TRANSPORTES RODOVIA SUL LTDA</t>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>26354329/0001-44</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t/>
+          <t>DA06DAB1-C404-4092-9971-803719D86249</t>
         </is>
       </c>
       <c r="BR11" t="n">
-        <v>416.33</v>
+        <v>402.59</v>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT11" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="BU11" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="BV11" t="n">
-        <v>79914.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="12">
@@ -3978,18 +3978,18 @@
         <v>460.0</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>100094536</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>88209.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="J12" s="9" t="n">
-        <v>45489.40326388889</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>BR1360638</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4021,21 +4021,21 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>BR1530316</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>IRMAND.STA CASA MISER.PORTO ALEGRE</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R12" s="15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4049,22 +4049,22 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>BR1360638</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>MFP.1-V563118</t>
+          <t>DUK.2-V649550</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0001/MFP-H13-ALZ/915x457x78(92)x45/PB/FNB/OTC/0</t>
+          <t>0002/DIFUSOR DE LONGO ALCANCE/DUK-V-0-00/400/PH1</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>84213990</t>
+          <t>76169900</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -4091,20 +4091,20 @@
         </is>
       </c>
       <c r="AD12" t="n">
-        <v>892.41</v>
+        <v>728.89</v>
       </c>
       <c r="AE12" t="n">
-        <v>738.6</v>
+        <v>4251.92</v>
       </c>
       <c r="AF12" t="n">
-        <v>892.41</v>
+        <v>5831.12</v>
       </c>
       <c r="AG12" t="n">
-        <v>892.41</v>
+        <v>6020.63</v>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0</v>
+        <v>189.51</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.43</v>
+        <v>73.86</v>
       </c>
       <c r="AL12" t="n">
-        <v>61.85</v>
+        <v>340.21</v>
       </c>
       <c r="AM12" t="n">
         <v>0.0</v>
@@ -4146,16 +4146,16 @@
         <v>0.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>461.95</v>
+        <v>6020.63</v>
       </c>
       <c r="AV12" t="n">
-        <v>17.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0</v>
+        <v>933.2</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4168,16 +4168,16 @@
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>51007</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>KLB REP COMERCIAIS</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD12" t="n">
-        <v>0.85</v>
+        <v>0.56</v>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
@@ -4210,22 +4210,22 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>H72</t>
+          <t>017</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>RODONAVES TRANSPORTES E ENC. L</t>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>92815000/0001-68</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>PR820021</t>
+          <t/>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
@@ -4235,19 +4235,19 @@
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t/>
+          <t>DA4F006C-9800-411A-BA80-19BC8207C577</t>
         </is>
       </c>
       <c r="BR12" t="n">
-        <v>78.53</v>
+        <v>421.44</v>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT12" t="n">
-        <v>5.0</v>
+        <v>3.2</v>
       </c>
       <c r="BU12" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="BV12" t="n">
-        <v>79915.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="13">
@@ -4263,18 +4263,18 @@
         <v>460.0</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100094536</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>88209.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="J13" s="9" t="n">
-        <v>45489.40326388889</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>BR1360638</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4306,21 +4306,21 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>BR1530316</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IRMAND.STA CASA MISER.PORTO ALEGRE</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R13" s="15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -4334,22 +4334,22 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>BR1360638</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>MFC.2-V563119</t>
+          <t>DUK.3-V649551</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0002/MFC-H13-ALZ/457x457x292x6/000/FNB/OTC/0</t>
+          <t>0003/DIFUSOR DE LONGO ALCANCE/DUK-V-0-00/400/PH1</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>84213990</t>
+          <t>76169900</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -4376,20 +4376,20 @@
         </is>
       </c>
       <c r="AD13" t="n">
-        <v>1641.76</v>
+        <v>728.89</v>
       </c>
       <c r="AE13" t="n">
-        <v>1358.79</v>
+        <v>15944.68</v>
       </c>
       <c r="AF13" t="n">
-        <v>1641.76</v>
+        <v>21866.7</v>
       </c>
       <c r="AG13" t="n">
-        <v>1641.76</v>
+        <v>22577.37</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0</v>
+        <v>710.67</v>
       </c>
       <c r="AK13" t="n">
-        <v>24.71</v>
+        <v>276.98</v>
       </c>
       <c r="AL13" t="n">
-        <v>113.79</v>
+        <v>1275.8</v>
       </c>
       <c r="AM13" t="n">
         <v>0.0</v>
@@ -4431,16 +4431,16 @@
         <v>0.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>849.85</v>
+        <v>22577.37</v>
       </c>
       <c r="AV13" t="n">
-        <v>17.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>3499.49</v>
       </c>
       <c r="AY13" t="n">
         <v>0.0</v>
@@ -4453,16 +4453,16 @@
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>51007</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>KLB REP COMERCIAIS</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD13" t="n">
-        <v>0.85</v>
+        <v>0.56</v>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
@@ -4495,22 +4495,22 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>H72</t>
+          <t>017</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>RODONAVES TRANSPORTES E ENC. L</t>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>92815000/0001-68</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>PR820021</t>
+          <t/>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
@@ -4520,19 +4520,19 @@
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t/>
+          <t>E6A8FD1F-3761-493D-BF1E-106778BD6244</t>
         </is>
       </c>
       <c r="BR13" t="n">
-        <v>144.47</v>
+        <v>1580.42</v>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT13" t="n">
-        <v>5.0</v>
+        <v>3.2</v>
       </c>
       <c r="BU13" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="BV13" t="n">
-        <v>79915.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="14">
@@ -4548,18 +4548,18 @@
         <v>460.0</v>
       </c>
       <c r="E14" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>100094537</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>88210.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="J14" s="9" t="n">
-        <v>45489.40326388889</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4581,75 +4581,75 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>BR1360701</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>BR1550742</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>FUNDACAO FELICE ROSSO</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R14" s="15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>S949GR</t>
+          <t>S101</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Remessa para troca em garantia</t>
+          <t>Venda produção estabelecimento</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>BR1360701</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>MFP.1-V563623</t>
+          <t>ADLQ.4-V649552</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0001/MFP-H13-GALP/305x610x292(299)x270/00/FNU/OTC/0</t>
+          <t>0004/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T2/000SAN00M0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>84213990</t>
+          <t>76169900</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>OUTRA SAÍDA DE MERCADORIA OU PRESTAÇÃO DE SER</t>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="AB14" t="n">
@@ -4661,20 +4661,20 @@
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>726.01</v>
+        <v>139.63</v>
       </c>
       <c r="AE14" t="n">
-        <v>726.01</v>
+        <v>101.81</v>
       </c>
       <c r="AF14" t="n">
-        <v>726.01</v>
+        <v>139.63</v>
       </c>
       <c r="AG14" t="n">
-        <v>726.01</v>
+        <v>144.17</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -4683,13 +4683,13 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0</v>
+        <v>4.54</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0</v>
+        <v>1.77</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0</v>
+        <v>8.15</v>
       </c>
       <c r="AM14" t="n">
         <v>0.0</v>
@@ -4716,16 +4716,16 @@
         <v>0.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>354.94</v>
+        <v>144.17</v>
       </c>
       <c r="AV14" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0</v>
+        <v>22.35</v>
       </c>
       <c r="AY14" t="n">
         <v>0.0</v>
@@ -4738,16 +4738,16 @@
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>Demétrius de Almeida Franco da Cunh</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD14" t="n">
-        <v>0.5</v>
+        <v>0.56</v>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
@@ -4780,22 +4780,22 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>017</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>JAMEF ENCOMENDAS URGENTE</t>
+          <t>TRANSJOI TRANSPORTES LTDA.</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>17214149/0001-76</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>PR820021</t>
+          <t/>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="BR14" t="n">
-        <v>63.89</v>
+        <v>10.09</v>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="BT14" t="n">
-        <v>0.0</v>
+        <v>3.2</v>
       </c>
       <c r="BU14" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="BV14" t="n">
-        <v>79916.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="15">
@@ -4833,18 +4833,18 @@
         <v>460.0</v>
       </c>
       <c r="E15" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>100094538</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>88211.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="J15" s="9" t="n">
-        <v>45489.403275462966</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>BR1360810</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4876,21 +4876,21 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>BR0025869</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R15" s="15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -4904,17 +4904,17 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>BR1360810</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DUK.1-V564584</t>
+          <t>ADQ.5-V649553</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0001/DIFUSOR DE LONGO ALCANCE/DUK-V-0-00/200/PH4</t>
+          <t>0005/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG371X208S000SAN0RM00</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -4946,16 +4946,16 @@
         </is>
       </c>
       <c r="AD15" t="n">
-        <v>394.17</v>
+        <v>142.52</v>
       </c>
       <c r="AE15" t="n">
-        <v>4449.8</v>
+        <v>207.84</v>
       </c>
       <c r="AF15" t="n">
-        <v>5912.55</v>
+        <v>285.04</v>
       </c>
       <c r="AG15" t="n">
-        <v>6104.71</v>
+        <v>294.3</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
@@ -4968,13 +4968,13 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>192.16</v>
+        <v>9.26</v>
       </c>
       <c r="AK15" t="n">
-        <v>77.41</v>
+        <v>3.61</v>
       </c>
       <c r="AL15" t="n">
-        <v>356.56</v>
+        <v>16.63</v>
       </c>
       <c r="AM15" t="n">
         <v>0.0</v>
@@ -5001,16 +5001,16 @@
         <v>0.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>6104.71</v>
+        <v>294.3</v>
       </c>
       <c r="AV15" t="n">
-        <v>20.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW15" t="n">
         <v>7.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>793.61</v>
+        <v>45.62</v>
       </c>
       <c r="AY15" t="n">
         <v>0.0</v>
@@ -5023,16 +5023,16 @@
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>59005</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>JOSE RICARDO V. DE BARROS PUCA</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD15" t="n">
-        <v>0.81</v>
+        <v>0.56</v>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="BL15" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>32581733/0001-53</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO15" t="inlineStr">
@@ -5090,19 +5090,19 @@
       </c>
       <c r="BQ15" t="inlineStr">
         <is>
-          <t>39594F46-43C9-46EC-9E11-87373B996F21</t>
+          <t/>
         </is>
       </c>
       <c r="BR15" t="n">
-        <v>427.33</v>
+        <v>20.6</v>
       </c>
       <c r="BS15" t="inlineStr">
         <is>
-          <t>Nac. conteudo import. &lt;= 40</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="BT15" t="n">
-        <v>5.0</v>
+        <v>3.2</v>
       </c>
       <c r="BU15" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="BV15" t="n">
-        <v>79917.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="16">
@@ -5118,18 +5118,18 @@
         <v>460.0</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="J16" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5161,21 +5161,21 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R16" s="15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -5189,17 +5189,17 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>ADLQ.1-V564826</t>
+          <t>AH.6-V649554</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0001/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-K-0-T3/148SAN00M0</t>
+          <t>0006/GRELHA DE ALETAS FIXAS/AH0-AG225X125/00FAN0M0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -5231,16 +5231,16 @@
         </is>
       </c>
       <c r="AD16" t="n">
-        <v>302.99</v>
+        <v>86.39</v>
       </c>
       <c r="AE16" t="n">
-        <v>3505.64</v>
+        <v>251.97</v>
       </c>
       <c r="AF16" t="n">
-        <v>4544.85</v>
+        <v>345.56</v>
       </c>
       <c r="AG16" t="n">
-        <v>4692.56</v>
+        <v>356.79</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -5253,13 +5253,13 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>147.71</v>
+        <v>11.23</v>
       </c>
       <c r="AK16" t="n">
-        <v>61.05</v>
+        <v>4.38</v>
       </c>
       <c r="AL16" t="n">
-        <v>281.21</v>
+        <v>20.16</v>
       </c>
       <c r="AM16" t="n">
         <v>0.0</v>
@@ -5286,16 +5286,16 @@
         <v>0.0</v>
       </c>
       <c r="AU16" t="n">
-        <v>4692.56</v>
+        <v>356.79</v>
       </c>
       <c r="AV16" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW16" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>281.55</v>
+        <v>55.3</v>
       </c>
       <c r="AY16" t="n">
         <v>0.0</v>
@@ -5308,12 +5308,12 @@
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD16" t="n">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="BR16" t="n">
-        <v>563.11</v>
+        <v>24.98</v>
       </c>
       <c r="BS16" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="BV16" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="17">
@@ -5403,18 +5403,18 @@
         <v>460.0</v>
       </c>
       <c r="E17" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="J17" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5446,21 +5446,21 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R17" s="15" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -5474,17 +5474,17 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>ADLQ.2-V564827</t>
+          <t>AH.7-V649555</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0002/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T4/000SAN00M0</t>
+          <t>0007/GRELHA DE ALETAS FIXAS/AH0-AG325X125/00FAN0M0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -5516,16 +5516,16 @@
         </is>
       </c>
       <c r="AD17" t="n">
-        <v>193.76</v>
+        <v>103.7</v>
       </c>
       <c r="AE17" t="n">
-        <v>1195.65</v>
+        <v>1134.24</v>
       </c>
       <c r="AF17" t="n">
-        <v>1550.08</v>
+        <v>1555.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1600.46</v>
+        <v>1606.05</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -5538,13 +5538,13 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>50.38</v>
+        <v>50.55</v>
       </c>
       <c r="AK17" t="n">
-        <v>20.82</v>
+        <v>19.7</v>
       </c>
       <c r="AL17" t="n">
-        <v>95.91</v>
+        <v>90.75</v>
       </c>
       <c r="AM17" t="n">
         <v>0.0</v>
@@ -5571,16 +5571,16 @@
         <v>0.0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1600.46</v>
+        <v>1606.05</v>
       </c>
       <c r="AV17" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW17" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>96.03</v>
+        <v>248.94</v>
       </c>
       <c r="AY17" t="n">
         <v>0.0</v>
@@ -5593,12 +5593,12 @@
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD17" t="n">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="BR17" t="n">
-        <v>192.05</v>
+        <v>112.42</v>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="BV17" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="18">
@@ -5688,18 +5688,18 @@
         <v>460.0</v>
       </c>
       <c r="E18" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="J18" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5731,21 +5731,21 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R18" s="15" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -5759,17 +5759,17 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>ADLQ.3-V564828</t>
+          <t>AH.8-V649556</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0003/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T5/000SAN00M0</t>
+          <t>0008/GRELHA DE ALETAS FIXAS/AH0-AG525X125/00FAN0M0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -5801,16 +5801,16 @@
         </is>
       </c>
       <c r="AD18" t="n">
-        <v>232.08</v>
+        <v>138.33</v>
       </c>
       <c r="AE18" t="n">
-        <v>1432.1</v>
+        <v>403.47</v>
       </c>
       <c r="AF18" t="n">
-        <v>1856.64</v>
+        <v>553.32</v>
       </c>
       <c r="AG18" t="n">
-        <v>1916.98</v>
+        <v>571.3</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
@@ -5823,13 +5823,13 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>60.34</v>
+        <v>17.98</v>
       </c>
       <c r="AK18" t="n">
-        <v>24.94</v>
+        <v>7.01</v>
       </c>
       <c r="AL18" t="n">
-        <v>114.88</v>
+        <v>32.28</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
@@ -5856,16 +5856,16 @@
         <v>0.0</v>
       </c>
       <c r="AU18" t="n">
-        <v>1916.98</v>
+        <v>571.3</v>
       </c>
       <c r="AV18" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>115.02</v>
+        <v>88.55</v>
       </c>
       <c r="AY18" t="n">
         <v>0.0</v>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD18" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="BR18" t="n">
-        <v>230.04</v>
+        <v>39.99</v>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="BV18" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="19">
@@ -5973,18 +5973,18 @@
         <v>460.0</v>
       </c>
       <c r="E19" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="J19" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6016,21 +6016,21 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R19" s="15" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -6044,17 +6044,17 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>ADLQ.4-V564829</t>
+          <t>AH.9-V649557</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0004/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-K-0-T4/178SAN00M0</t>
+          <t>0009/GRELHA DE ALETAS FIXAS/AH15-A1025X425/00FAN000</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>44.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="AD19" t="n">
-        <v>364.25</v>
+        <v>323.14</v>
       </c>
       <c r="AE19" t="n">
-        <v>12362.28</v>
+        <v>1178.12</v>
       </c>
       <c r="AF19" t="n">
-        <v>16027.0</v>
+        <v>1615.7</v>
       </c>
       <c r="AG19" t="n">
-        <v>16547.88</v>
+        <v>1668.21</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
@@ -6108,13 +6108,13 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>520.88</v>
+        <v>52.51</v>
       </c>
       <c r="AK19" t="n">
-        <v>215.3</v>
+        <v>20.47</v>
       </c>
       <c r="AL19" t="n">
-        <v>991.68</v>
+        <v>94.27</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
@@ -6141,16 +6141,16 @@
         <v>0.0</v>
       </c>
       <c r="AU19" t="n">
-        <v>16547.88</v>
+        <v>1668.21</v>
       </c>
       <c r="AV19" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>992.87</v>
+        <v>258.58</v>
       </c>
       <c r="AY19" t="n">
         <v>0.0</v>
@@ -6163,12 +6163,12 @@
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD19" t="n">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="BR19" t="n">
-        <v>1985.75</v>
+        <v>116.77</v>
       </c>
       <c r="BS19" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="BV19" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="20">
@@ -6258,18 +6258,18 @@
         <v>460.0</v>
       </c>
       <c r="E20" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="J20" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6301,21 +6301,21 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R20" s="15" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -6329,17 +6329,17 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>ADQ.5-V564830</t>
+          <t>AGS.10-V649558</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0005/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG371X208F000SAN00M00</t>
+          <t>0010/GRELHA INDEVASSAVEL/AGS-T/525X225/00/CF/AN0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -6371,16 +6371,16 @@
         </is>
       </c>
       <c r="AD20" t="n">
-        <v>116.14</v>
+        <v>203.42</v>
       </c>
       <c r="AE20" t="n">
-        <v>716.67</v>
+        <v>1334.96</v>
       </c>
       <c r="AF20" t="n">
-        <v>929.12</v>
+        <v>1830.78</v>
       </c>
       <c r="AG20" t="n">
-        <v>959.32</v>
+        <v>1890.28</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>30.2</v>
+        <v>59.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.48</v>
+        <v>23.19</v>
       </c>
       <c r="AL20" t="n">
-        <v>57.49</v>
+        <v>106.82</v>
       </c>
       <c r="AM20" t="n">
         <v>0.0</v>
@@ -6426,16 +6426,16 @@
         <v>0.0</v>
       </c>
       <c r="AU20" t="n">
-        <v>959.32</v>
+        <v>1890.28</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>57.56</v>
+        <v>292.99</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -6448,12 +6448,12 @@
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD20" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="BR20" t="n">
-        <v>115.12</v>
+        <v>132.32</v>
       </c>
       <c r="BS20" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="BV20" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="21">
@@ -6543,18 +6543,18 @@
         <v>460.0</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="J21" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6586,21 +6586,21 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R21" s="15" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -6614,22 +6614,22 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>ADQ.6-V564831</t>
+          <t>RG.11-V649559</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0006/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG471X208F000SAN00M00</t>
+          <t>0011/DAMPER DE REGULAGEM/RG-B-400X455/D/0/00/000</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>90261029</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -6656,20 +6656,20 @@
         </is>
       </c>
       <c r="AD21" t="n">
-        <v>133.05</v>
+        <v>216.68</v>
       </c>
       <c r="AE21" t="n">
-        <v>1539.4</v>
+        <v>152.4</v>
       </c>
       <c r="AF21" t="n">
-        <v>1995.75</v>
+        <v>216.68</v>
       </c>
       <c r="AG21" t="n">
-        <v>2060.61</v>
+        <v>216.68</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>64.86</v>
+        <v>0.0</v>
       </c>
       <c r="AK21" t="n">
-        <v>26.81</v>
+        <v>2.77</v>
       </c>
       <c r="AL21" t="n">
-        <v>123.49</v>
+        <v>12.76</v>
       </c>
       <c r="AM21" t="n">
         <v>0.0</v>
@@ -6711,16 +6711,16 @@
         <v>0.0</v>
       </c>
       <c r="AU21" t="n">
-        <v>2060.61</v>
+        <v>216.68</v>
       </c>
       <c r="AV21" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>123.64</v>
+        <v>33.58</v>
       </c>
       <c r="AY21" t="n">
         <v>0.0</v>
@@ -6733,12 +6733,12 @@
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD21" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="BN21" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO21" t="inlineStr">
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="BR21" t="n">
-        <v>247.27</v>
+        <v>15.17</v>
       </c>
       <c r="BS21" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="BV21" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="22">
@@ -6828,18 +6828,18 @@
         <v>460.0</v>
       </c>
       <c r="E22" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="J22" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6871,141 +6871,141 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R22" s="15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>BR1370638</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>VDF.12-V649560</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0012/TOMADA DE AR EXTERNO/VDF-F711/597X297/K/AG/F/AN0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>315.53</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>230.07</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>315.53</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>325.78</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>325.78</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AW22" t="n">
         <v>7.0</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>S101</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Venda produção estabelecimento</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>BR1360829</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>ADQ.7-V564832</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>0007/DIFUSOR MULTIVIAS RETANGULAR/ADQ-10AG571X208F000SAN00M00</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>76169900</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="AB22" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="AD22" t="n">
-        <v>149.96</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1735.06</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>2249.4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2322.51</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Fabricado</t>
-        </is>
-      </c>
-      <c r="AJ22" t="n">
-        <v>73.11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>139.18</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2322.51</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>12.0</v>
-      </c>
       <c r="AX22" t="n">
-        <v>139.35</v>
+        <v>50.5</v>
       </c>
       <c r="AY22" t="n">
         <v>0.0</v>
@@ -7018,12 +7018,12 @@
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD22" t="n">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="BN22" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO22" t="inlineStr">
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="BR22" t="n">
-        <v>278.7</v>
+        <v>22.8</v>
       </c>
       <c r="BS22" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="BV22" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="23">
@@ -7113,18 +7113,18 @@
         <v>460.0</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="J23" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -7156,21 +7156,21 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R23" s="15" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -7184,17 +7184,17 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>VAT.8-V564833</t>
+          <t>VDF.13-V649561</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0008/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X125/00FAN0M0</t>
+          <t>0013/TOMADA DE AR EXTERNO/VDF-F711/997X497/K/AG/F/AN0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>52.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="AD23" t="n">
-        <v>84.67</v>
+        <v>602.27</v>
       </c>
       <c r="AE23" t="n">
-        <v>3396.08</v>
+        <v>1756.64</v>
       </c>
       <c r="AF23" t="n">
-        <v>4402.84</v>
+        <v>2409.08</v>
       </c>
       <c r="AG23" t="n">
-        <v>4545.93</v>
+        <v>2487.38</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>143.09</v>
+        <v>78.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>59.15</v>
+        <v>30.52</v>
       </c>
       <c r="AL23" t="n">
-        <v>272.43</v>
+        <v>140.56</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
@@ -7281,16 +7281,16 @@
         <v>0.0</v>
       </c>
       <c r="AU23" t="n">
-        <v>4545.93</v>
+        <v>2487.38</v>
       </c>
       <c r="AV23" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>272.76</v>
+        <v>385.54</v>
       </c>
       <c r="AY23" t="n">
         <v>0.0</v>
@@ -7303,12 +7303,12 @@
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD23" t="n">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="BR23" t="n">
-        <v>545.51</v>
+        <v>174.12</v>
       </c>
       <c r="BS23" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="BV23" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="24">
@@ -7398,18 +7398,18 @@
         <v>460.0</v>
       </c>
       <c r="E24" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="J24" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7441,21 +7441,21 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R24" s="15" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -7469,17 +7469,17 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>VAT.9-V564834</t>
+          <t>AWG.14-V649562</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0009/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X165/00FAN0M0</t>
+          <t>0014/VENEZIANA/AWG/1785X825/P/0/F/AN0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="AD24" t="n">
-        <v>111.75</v>
+        <v>1257.85</v>
       </c>
       <c r="AE24" t="n">
-        <v>689.58</v>
+        <v>4585.98</v>
       </c>
       <c r="AF24" t="n">
-        <v>894.0</v>
+        <v>6289.25</v>
       </c>
       <c r="AG24" t="n">
-        <v>923.06</v>
+        <v>6493.65</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -7533,13 +7533,13 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>29.06</v>
+        <v>204.4</v>
       </c>
       <c r="AK24" t="n">
-        <v>12.01</v>
+        <v>79.66</v>
       </c>
       <c r="AL24" t="n">
-        <v>55.32</v>
+        <v>366.94</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
@@ -7566,16 +7566,16 @@
         <v>0.0</v>
       </c>
       <c r="AU24" t="n">
-        <v>923.06</v>
+        <v>6493.65</v>
       </c>
       <c r="AV24" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>55.38</v>
+        <v>1006.51</v>
       </c>
       <c r="AY24" t="n">
         <v>0.0</v>
@@ -7588,12 +7588,12 @@
       </c>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD24" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="BN24" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO24" t="inlineStr">
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="BR24" t="n">
-        <v>110.77</v>
+        <v>454.56</v>
       </c>
       <c r="BS24" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="BV24" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="25">
@@ -7683,18 +7683,18 @@
         <v>460.0</v>
       </c>
       <c r="E25" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>88212.0</v>
+        <v>101223.0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="J25" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40702546296</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -7726,21 +7726,21 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="R25" s="15" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -7754,17 +7754,17 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1370638</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>VAT.10-V564835</t>
+          <t>AWK.15-V649563</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0010/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG425X165/00FAN0M0</t>
+          <t>0015/VENEZIANA/AWK/797X797/0/0/F/AN0/0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -7796,16 +7796,16 @@
         </is>
       </c>
       <c r="AD25" t="n">
-        <v>133.07</v>
+        <v>475.3</v>
       </c>
       <c r="AE25" t="n">
-        <v>3797.77</v>
+        <v>346.58</v>
       </c>
       <c r="AF25" t="n">
-        <v>4923.59</v>
+        <v>475.3</v>
       </c>
       <c r="AG25" t="n">
-        <v>5083.61</v>
+        <v>490.75</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>160.02</v>
+        <v>15.45</v>
       </c>
       <c r="AK25" t="n">
-        <v>66.14</v>
+        <v>6.02</v>
       </c>
       <c r="AL25" t="n">
-        <v>304.65</v>
+        <v>27.73</v>
       </c>
       <c r="AM25" t="n">
         <v>0.0</v>
@@ -7851,16 +7851,16 @@
         <v>0.0</v>
       </c>
       <c r="AU25" t="n">
-        <v>5083.61</v>
+        <v>490.75</v>
       </c>
       <c r="AV25" t="n">
-        <v>18.0</v>
+        <v>22.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>305.02</v>
+        <v>76.07</v>
       </c>
       <c r="AY25" t="n">
         <v>0.0</v>
@@ -7873,12 +7873,12 @@
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>ROUTE COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="BD25" t="n">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="BN25" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>06845408/0045-61</t>
         </is>
       </c>
       <c r="BO25" t="inlineStr">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="BR25" t="n">
-        <v>610.03</v>
+        <v>34.35</v>
       </c>
       <c r="BS25" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         </is>
       </c>
       <c r="BV25" t="n">
-        <v>79918.0</v>
+        <v>93518.0</v>
       </c>
     </row>
     <row r="26">
@@ -7968,18 +7968,18 @@
         <v>460.0</v>
       </c>
       <c r="E26" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110615</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>88212.0</v>
+        <v>101225.0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="J26" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40704861111</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371122</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8011,25 +8011,25 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0025613</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>RIBAMAR PESTANA DOS REIS</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="R26" s="15" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>S101</t>
+          <t>S101CF</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371122</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>VAT.11-V564836</t>
+          <t>AGS.1-V654710</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0011/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X225/00FAN0M0</t>
+          <t>0001/GRELHA INDEVASSAVEL/AGS-T/325X325/00/CF/AN0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -8081,16 +8081,16 @@
         </is>
       </c>
       <c r="AD26" t="n">
-        <v>123.33</v>
+        <v>285.02</v>
       </c>
       <c r="AE26" t="n">
-        <v>761.04</v>
+        <v>627.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>986.64</v>
+        <v>855.06</v>
       </c>
       <c r="AG26" t="n">
-        <v>1018.71</v>
+        <v>882.85</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -8103,13 +8103,13 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>32.07</v>
+        <v>27.79</v>
       </c>
       <c r="AK26" t="n">
-        <v>13.25</v>
+        <v>10.9</v>
       </c>
       <c r="AL26" t="n">
-        <v>61.05</v>
+        <v>50.22</v>
       </c>
       <c r="AM26" t="n">
         <v>0.0</v>
@@ -8136,38 +8136,38 @@
         <v>0.0</v>
       </c>
       <c r="AU26" t="n">
-        <v>1018.71</v>
+        <v>882.85</v>
       </c>
       <c r="AV26" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="AW26" t="n">
         <v>12.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>61.13</v>
+        <v>70.63</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.0</v>
+        <v>17.66</v>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>INTERMAX SERVICES LTDA</t>
         </is>
       </c>
       <c r="BD26" t="n">
-        <v>0.56</v>
+        <v>0.79</v>
       </c>
       <c r="BE26" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="BK26" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL26" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>902716107-00</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="BR26" t="n">
-        <v>122.24</v>
+        <v>105.94</v>
       </c>
       <c r="BS26" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="BT26" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="BU26" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="BV26" t="n">
-        <v>79918.0</v>
+        <v>93520.0</v>
       </c>
     </row>
     <row r="27">
@@ -8253,18 +8253,18 @@
         <v>460.0</v>
       </c>
       <c r="E27" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110615</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>88212.0</v>
+        <v>101225.0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="J27" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40704861111</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371122</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8296,25 +8296,25 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR0025613</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>RIBAMAR PESTANA DOS REIS</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="R27" s="15" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>S101</t>
+          <t>S101CF</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -8324,17 +8324,17 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371122</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>VAT.12-V564837</t>
+          <t>ADLQ.2-V654711</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0012/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X75/00FAN0M0</t>
+          <t>0002/DIFUSOR MULTIVIAS QUADRADO/ADLQ-A-K-0-T3/198SAN0000</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>206.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -8366,16 +8366,16 @@
         </is>
       </c>
       <c r="AD27" t="n">
-        <v>77.48</v>
+        <v>394.87</v>
       </c>
       <c r="AE27" t="n">
-        <v>12311.28</v>
+        <v>289.78</v>
       </c>
       <c r="AF27" t="n">
-        <v>15960.88</v>
+        <v>394.87</v>
       </c>
       <c r="AG27" t="n">
-        <v>16479.61</v>
+        <v>407.7</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
@@ -8388,13 +8388,13 @@
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>518.73</v>
+        <v>12.83</v>
       </c>
       <c r="AK27" t="n">
-        <v>214.41</v>
+        <v>5.04</v>
       </c>
       <c r="AL27" t="n">
-        <v>987.59</v>
+        <v>23.19</v>
       </c>
       <c r="AM27" t="n">
         <v>0.0</v>
@@ -8421,38 +8421,38 @@
         <v>0.0</v>
       </c>
       <c r="AU27" t="n">
-        <v>16479.61</v>
+        <v>407.7</v>
       </c>
       <c r="AV27" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="AW27" t="n">
         <v>12.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>988.78</v>
+        <v>32.62</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.0</v>
+        <v>8.15</v>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>54001</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+          <t>INTERMAX SERVICES LTDA</t>
         </is>
       </c>
       <c r="BD27" t="n">
-        <v>0.56</v>
+        <v>0.79</v>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="BK27" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="BL27" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="BN27" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>902716107-00</t>
         </is>
       </c>
       <c r="BO27" t="inlineStr">
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="BR27" t="n">
-        <v>1977.55</v>
+        <v>48.92</v>
       </c>
       <c r="BS27" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="BT27" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="BU27" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="BV27" t="n">
-        <v>79918.0</v>
+        <v>93520.0</v>
       </c>
     </row>
     <row r="28">
@@ -8538,18 +8538,18 @@
         <v>460.0</v>
       </c>
       <c r="E28" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="J28" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8581,12 +8581,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -8595,7 +8595,7 @@
         </is>
       </c>
       <c r="R28" s="15" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -8609,22 +8609,22 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>VAT.13-V564838</t>
+          <t>FKA.1-V655371</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0013/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X125/00FAN0M0</t>
+          <t>0001/DAMPER CORTA FOGO/FKATIBR120-0-250X200-0-Z13</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84798999</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -8651,20 +8651,20 @@
         </is>
       </c>
       <c r="AD28" t="n">
-        <v>84.67</v>
+        <v>1406.22</v>
       </c>
       <c r="AE28" t="n">
-        <v>522.47</v>
+        <v>2327.69</v>
       </c>
       <c r="AF28" t="n">
-        <v>677.36</v>
+        <v>2812.44</v>
       </c>
       <c r="AG28" t="n">
-        <v>699.37</v>
+        <v>2812.44</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -8673,13 +8673,13 @@
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>22.01</v>
+        <v>0.0</v>
       </c>
       <c r="AK28" t="n">
-        <v>9.1</v>
+        <v>42.32</v>
       </c>
       <c r="AL28" t="n">
-        <v>41.91</v>
+        <v>194.94</v>
       </c>
       <c r="AM28" t="n">
         <v>0.0</v>
@@ -8706,7 +8706,7 @@
         <v>0.0</v>
       </c>
       <c r="AU28" t="n">
-        <v>699.37</v>
+        <v>1374.97</v>
       </c>
       <c r="AV28" t="n">
         <v>18.0</v>
@@ -8715,7 +8715,7 @@
         <v>12.0</v>
       </c>
       <c r="AX28" t="n">
-        <v>41.97</v>
+        <v>0.0</v>
       </c>
       <c r="AY28" t="n">
         <v>0.0</v>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="BD28" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
@@ -8770,22 +8770,22 @@
       </c>
       <c r="BL28" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM28" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr">
@@ -8795,19 +8795,19 @@
       </c>
       <c r="BQ28" t="inlineStr">
         <is>
-          <t/>
+          <t>9C98511F-B1EC-4BC6-AB5C-53AC0D46EA56</t>
         </is>
       </c>
       <c r="BR28" t="n">
-        <v>83.92</v>
+        <v>247.49</v>
       </c>
       <c r="BS28" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT28" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU28" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="BV28" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="29">
@@ -8823,18 +8823,18 @@
         <v>460.0</v>
       </c>
       <c r="E29" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="J29" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8866,12 +8866,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="R29" s="15" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -8894,22 +8894,22 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>VAT.14-V564839</t>
+          <t>FKA.2-V655372</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0014/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG325X225/00FAN0M0</t>
+          <t>0002/DAMPER CORTA FOGO/FKATIBR120-0-600X250-0-Z13</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>76169900</t>
+          <t>84798999</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -8936,20 +8936,20 @@
         </is>
       </c>
       <c r="AD29" t="n">
-        <v>123.33</v>
+        <v>1861.72</v>
       </c>
       <c r="AE29" t="n">
-        <v>2092.85</v>
+        <v>3081.67</v>
       </c>
       <c r="AF29" t="n">
-        <v>2713.26</v>
+        <v>3723.44</v>
       </c>
       <c r="AG29" t="n">
-        <v>2801.44</v>
+        <v>3723.44</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -8958,13 +8958,13 @@
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>88.18</v>
+        <v>0.0</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.45</v>
+        <v>56.03</v>
       </c>
       <c r="AL29" t="n">
-        <v>167.88</v>
+        <v>258.08</v>
       </c>
       <c r="AM29" t="n">
         <v>0.0</v>
@@ -8991,7 +8991,7 @@
         <v>0.0</v>
       </c>
       <c r="AU29" t="n">
-        <v>2801.44</v>
+        <v>1820.35</v>
       </c>
       <c r="AV29" t="n">
         <v>18.0</v>
@@ -9000,7 +9000,7 @@
         <v>12.0</v>
       </c>
       <c r="AX29" t="n">
-        <v>168.09</v>
+        <v>0.0</v>
       </c>
       <c r="AY29" t="n">
         <v>0.0</v>
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="BD29" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE29" t="inlineStr">
         <is>
@@ -9055,22 +9055,22 @@
       </c>
       <c r="BL29" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM29" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t/>
+          <t>PR820021</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr">
@@ -9080,19 +9080,19 @@
       </c>
       <c r="BQ29" t="inlineStr">
         <is>
-          <t/>
+          <t>240334B6-8092-41F1-A2B7-A4BFD3520841</t>
         </is>
       </c>
       <c r="BR29" t="n">
-        <v>336.17</v>
+        <v>327.66</v>
       </c>
       <c r="BS29" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Nac. conteudo import. &lt;= 40</t>
         </is>
       </c>
       <c r="BT29" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU29" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="BV29" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="30">
@@ -9108,18 +9108,18 @@
         <v>460.0</v>
       </c>
       <c r="E30" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="J30" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="R30" s="15" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -9179,17 +9179,17 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>VAT.15-V564840</t>
+          <t>ADLQ.3-V655373</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0015/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG225X165/00FAN0M0</t>
+          <t>0003/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T3/000SPH20M0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -9221,16 +9221,16 @@
         </is>
       </c>
       <c r="AD30" t="n">
-        <v>90.43</v>
+        <v>190.31</v>
       </c>
       <c r="AE30" t="n">
-        <v>1046.28</v>
+        <v>1027.56</v>
       </c>
       <c r="AF30" t="n">
-        <v>1356.45</v>
+        <v>1332.17</v>
       </c>
       <c r="AG30" t="n">
-        <v>1400.53</v>
+        <v>1375.47</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
@@ -9243,13 +9243,13 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>44.08</v>
+        <v>43.3</v>
       </c>
       <c r="AK30" t="n">
-        <v>18.22</v>
+        <v>17.9</v>
       </c>
       <c r="AL30" t="n">
-        <v>83.93</v>
+        <v>82.43</v>
       </c>
       <c r="AM30" t="n">
         <v>0.0</v>
@@ -9276,7 +9276,7 @@
         <v>0.0</v>
       </c>
       <c r="AU30" t="n">
-        <v>1400.53</v>
+        <v>1375.47</v>
       </c>
       <c r="AV30" t="n">
         <v>18.0</v>
@@ -9285,7 +9285,7 @@
         <v>12.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>84.04</v>
+        <v>82.52</v>
       </c>
       <c r="AY30" t="n">
         <v>0.0</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="BD30" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE30" t="inlineStr">
         <is>
@@ -9340,17 +9340,17 @@
       </c>
       <c r="BL30" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM30" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="BR30" t="n">
-        <v>168.06</v>
+        <v>165.06</v>
       </c>
       <c r="BS30" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="BT30" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU30" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="BV30" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="31">
@@ -9393,18 +9393,18 @@
         <v>460.0</v>
       </c>
       <c r="E31" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="J31" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="R31" s="15" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -9464,17 +9464,17 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>VAT.16-V564841</t>
+          <t>ADLQ.4-V655374</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0016/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG625X165/00FAN0M0</t>
+          <t>0004/DIFUSOR MULTIVIAS QUADRADO/ADLQ-AG-0-0-T4/000SPH20M0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -9506,16 +9506,16 @@
         </is>
       </c>
       <c r="AD31" t="n">
-        <v>175.7</v>
+        <v>232.26</v>
       </c>
       <c r="AE31" t="n">
-        <v>2032.87</v>
+        <v>537.46</v>
       </c>
       <c r="AF31" t="n">
-        <v>2635.5</v>
+        <v>696.78</v>
       </c>
       <c r="AG31" t="n">
-        <v>2721.15</v>
+        <v>719.43</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -9528,13 +9528,13 @@
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>85.65</v>
+        <v>22.65</v>
       </c>
       <c r="AK31" t="n">
-        <v>35.4</v>
+        <v>9.36</v>
       </c>
       <c r="AL31" t="n">
-        <v>163.07</v>
+        <v>43.11</v>
       </c>
       <c r="AM31" t="n">
         <v>0.0</v>
@@ -9561,7 +9561,7 @@
         <v>0.0</v>
       </c>
       <c r="AU31" t="n">
-        <v>2721.15</v>
+        <v>719.43</v>
       </c>
       <c r="AV31" t="n">
         <v>18.0</v>
@@ -9570,7 +9570,7 @@
         <v>12.0</v>
       </c>
       <c r="AX31" t="n">
-        <v>163.27</v>
+        <v>43.17</v>
       </c>
       <c r="AY31" t="n">
         <v>0.0</v>
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="BD31" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE31" t="inlineStr">
         <is>
@@ -9625,17 +9625,17 @@
       </c>
       <c r="BL31" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM31" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
@@ -9654,7 +9654,7 @@
         </is>
       </c>
       <c r="BR31" t="n">
-        <v>326.54</v>
+        <v>86.33</v>
       </c>
       <c r="BS31" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         </is>
       </c>
       <c r="BT31" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU31" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="BV31" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="32">
@@ -9678,18 +9678,18 @@
         <v>460.0</v>
       </c>
       <c r="E32" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="J32" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="R32" s="15" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -9749,17 +9749,17 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>VAT.17-V564842</t>
+          <t>AR.5-V655375</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0017/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG525X225/00FAN0M0</t>
+          <t>0005/GRELHA DE ALETAS FIXAS/AR-AG-425X225/0/0/FPH2M0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -9783,7 +9783,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -9791,16 +9791,16 @@
         </is>
       </c>
       <c r="AD32" t="n">
-        <v>171.88</v>
+        <v>164.67</v>
       </c>
       <c r="AE32" t="n">
-        <v>1060.63</v>
+        <v>127.02</v>
       </c>
       <c r="AF32" t="n">
-        <v>1375.04</v>
+        <v>164.67</v>
       </c>
       <c r="AG32" t="n">
-        <v>1419.73</v>
+        <v>170.02</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
@@ -9813,13 +9813,13 @@
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>44.69</v>
+        <v>5.35</v>
       </c>
       <c r="AK32" t="n">
-        <v>18.47</v>
+        <v>2.21</v>
       </c>
       <c r="AL32" t="n">
-        <v>85.08</v>
+        <v>10.19</v>
       </c>
       <c r="AM32" t="n">
         <v>0.0</v>
@@ -9846,7 +9846,7 @@
         <v>0.0</v>
       </c>
       <c r="AU32" t="n">
-        <v>1419.73</v>
+        <v>170.02</v>
       </c>
       <c r="AV32" t="n">
         <v>18.0</v>
@@ -9855,7 +9855,7 @@
         <v>12.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>85.18</v>
+        <v>10.2</v>
       </c>
       <c r="AY32" t="n">
         <v>0.0</v>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="BD32" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE32" t="inlineStr">
         <is>
@@ -9910,17 +9910,17 @@
       </c>
       <c r="BL32" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM32" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="BR32" t="n">
-        <v>170.37</v>
+        <v>20.4</v>
       </c>
       <c r="BS32" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="BT32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU32" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="BV32" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="33">
@@ -9963,18 +9963,18 @@
         <v>460.0</v>
       </c>
       <c r="E33" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="J33" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -10006,12 +10006,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -10020,7 +10020,7 @@
         </is>
       </c>
       <c r="R33" s="15" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -10034,17 +10034,17 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>VAT.18-V564843</t>
+          <t>AR.6-V655376</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0018/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG525X325/00FAN0M0</t>
+          <t>0006/GRELHA DE ALETAS FIXAS/AR-AG-225X125/0/0/FPH2M0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -10076,16 +10076,16 @@
         </is>
       </c>
       <c r="AD33" t="n">
-        <v>201.03</v>
+        <v>97.92</v>
       </c>
       <c r="AE33" t="n">
-        <v>1240.51</v>
+        <v>377.65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1608.24</v>
+        <v>489.6</v>
       </c>
       <c r="AG33" t="n">
-        <v>1660.51</v>
+        <v>505.51</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
@@ -10098,13 +10098,13 @@
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>52.27</v>
+        <v>15.91</v>
       </c>
       <c r="AK33" t="n">
-        <v>21.6</v>
+        <v>6.58</v>
       </c>
       <c r="AL33" t="n">
-        <v>99.51</v>
+        <v>30.29</v>
       </c>
       <c r="AM33" t="n">
         <v>0.0</v>
@@ -10131,7 +10131,7 @@
         <v>0.0</v>
       </c>
       <c r="AU33" t="n">
-        <v>1660.51</v>
+        <v>505.51</v>
       </c>
       <c r="AV33" t="n">
         <v>18.0</v>
@@ -10140,7 +10140,7 @@
         <v>12.0</v>
       </c>
       <c r="AX33" t="n">
-        <v>99.63</v>
+        <v>30.33</v>
       </c>
       <c r="AY33" t="n">
         <v>0.0</v>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="BD33" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE33" t="inlineStr">
         <is>
@@ -10195,17 +10195,17 @@
       </c>
       <c r="BL33" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM33" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN33" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO33" t="inlineStr">
@@ -10224,7 +10224,7 @@
         </is>
       </c>
       <c r="BR33" t="n">
-        <v>199.26</v>
+        <v>60.66</v>
       </c>
       <c r="BS33" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="BT33" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BU33" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="BV33" t="n">
-        <v>79918.0</v>
+        <v>93521.0</v>
       </c>
     </row>
     <row r="34">
@@ -10248,18 +10248,18 @@
         <v>460.0</v>
       </c>
       <c r="E34" s="9" t="n">
-        <v>45489.0</v>
+        <v>45861.0</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>45489.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>88212.0</v>
+        <v>101226.0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="J34" s="9" t="n">
-        <v>45489.40329861111</v>
+        <v>45861.40707175926</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -10305,7 +10305,7 @@
         </is>
       </c>
       <c r="R34" s="15" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -10319,17 +10319,17 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>BR1360829</t>
+          <t>BR1371215</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>VAT.19-V564844</t>
+          <t>AR.7-V655377</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0019/GRELHA DE ALETAS MOVEIS VERT./VAT-0-AG625X225/00FAN0M0</t>
+          <t>0007/GRELHA DE ALETAS FIXAS/AR-AG-1025X425/0/0/FPH2M0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -10361,16 +10361,16 @@
         </is>
       </c>
       <c r="AD34" t="n">
-        <v>195.19</v>
+        <v>431.55</v>
       </c>
       <c r="AE34" t="n">
-        <v>3312.28</v>
+        <v>332.88</v>
       </c>
       <c r="AF34" t="n">
-        <v>4294.18</v>
+        <v>431.55</v>
       </c>
       <c r="AG34" t="n">
-        <v>4433.74</v>
+        <v>445.58</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
@@ -10383,13 +10383,13 @@
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>139.56</v>
+        <v>14.03</v>
       </c>
       <c r="AK34" t="n">
-        <v>57.69</v>
+        <v>5.8</v>
       </c>
       <c r="AL34" t="n">
-        <v>265.7</v>
+        <v>26.7</v>
       </c>
       <c r="AM34" t="n">
         <v>0.0</v>
@@ -10416,7 +10416,7 @@
         <v>0.0</v>
       </c>
       <c r="AU34" t="n">
-        <v>4433.74</v>
+        <v>445.58</v>
       </c>
       <c r="AV34" t="n">
         <v>18.0</v>
@@ -10425,7 +10425,7 @@
         <v>12.0</v>
       </c>
       <c r="AX34" t="n">
-        <v>266.02</v>
+        <v>26.73</v>
       </c>
       <c r="AY34" t="n">
         <v>0.0</v>
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="BD34" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="BE34" t="inlineStr">
         <is>
@@ -10480,17 +10480,17 @@
       </c>
       <c r="BL34" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>660</t>
         </is>
       </c>
       <c r="BM34" t="inlineStr">
         <is>
-          <t>TRANSJOI TRANSPORTES LTDA.</t>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
         </is>
       </c>
       <c r="BN34" t="inlineStr">
         <is>
-          <t>23921007/0001-41</t>
+          <t>20294088/0001-09</t>
         </is>
       </c>
       <c r="BO34" t="inlineStr">
@@ -10505,27 +10505,597 @@
       </c>
       <c r="BQ34" t="inlineStr">
         <is>
+          <t>1803D937-42BC-4FF6-993A-FE4E6B98C668</t>
+        </is>
+      </c>
+      <c r="BR34" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>Nac. conteudo import. &lt;= 40</t>
+        </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV34" t="n">
+        <v>93521.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>45861.0</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>45861.99930555555</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>100110616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>101226.0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>45861.40707175926</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>BR1371215</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>BR1514380</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R35" s="15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>BR1371215</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>AR.8-V655378</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0008/GRELHA DE ALETAS FIXAS/AR-AG-225X225/0/0/FPH2M0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD35" t="n">
+        <v>122.29</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>188.65</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>244.58</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>252.53</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ35" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>252.53</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="BR34" t="n">
-        <v>532.05</v>
-      </c>
-      <c r="BS34" t="inlineStr">
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
+        </is>
+      </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>20294088/0001-09</t>
+        </is>
+      </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR35" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="BS35" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="BT34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BU34" t="inlineStr">
+      <c r="BT35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BU35" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="BV34" t="n">
-        <v>79918.0</v>
+      <c r="BV35" t="n">
+        <v>93521.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>45861.0</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>45861.99930555555</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>100110616</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>101226.0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>45861.40707175926</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>TROX Produtos</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>BR1371215</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>BR1514380</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="R36" s="15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Venda produção estabelecimento</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>BR1371215</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>AR.9-V655379</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0009/GRELHA DE ALETAS FIXAS/AR-AG-825X325/0/0/FPH2M0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>76169900</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>VENDA DE PRODUÇÃO DO ESTABELECIMENTO, DESTINA</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>307.93</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>712.55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>923.79</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>953.81</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Fabricado</t>
+        </is>
+      </c>
+      <c r="AJ36" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>57.16</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>953.81</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>EXITO ALVES E CORREA REPRES. LTDA.</t>
+        </is>
+      </c>
+      <c r="BD36" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BH36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>RODONAVES TRANP E ENCOMENDAS</t>
+        </is>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>20294088/0001-09</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>Redução de base de cálculo;Red</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>3917E240-11B7-437F-85D3-A27A08522641</t>
+        </is>
+      </c>
+      <c r="BR36" t="n">
+        <v>114.46</v>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>Nac. conteudo import. &lt;= 40</t>
+        </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BV36" t="n">
+        <v>93521.0</v>
       </c>
     </row>
   </sheetData>
